--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Laptop\e\VVSS\CamiVVSS_ro2024-2025\Labs\Lab01\CheckListsAll\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C988F33-E974-4516-BC95-27D0B68ECC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11496" tabRatio="650" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,25 +12,12 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -134,20 +115,248 @@
     <t>Tool-based Code Analysis</t>
   </si>
   <si>
-    <t>Effort to perform tool-based code analysis (hours):</t>
+    <t>Panzaru Tudor-Calin</t>
+  </si>
+  <si>
+    <t>Pop Alexandru</t>
+  </si>
+  <si>
+    <t>Profir Alexandru</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>displayScene method throws an exception that is not caught anywhere. Prefer error handling and displaying a user-friendly message.</t>
+  </si>
+  <si>
+    <t>handleAddPartCancel method throws an exception that is not caught anywhere. Prefer error handling and displaying a user-friendly message.</t>
+  </si>
+  <si>
+    <t>AddPartController, 101</t>
+  </si>
+  <si>
+    <t>AddPartController, 83</t>
+  </si>
+  <si>
+    <t>AddPartController, 145</t>
+  </si>
+  <si>
+    <t>Method `setService` in `AddProductController` does not check for null service, which may cause runtime errors.</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>AddProductController, 88</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>AddPartController, 25</t>
+  </si>
+  <si>
+    <t>Using `new String()` to initialize errorMessage is redundant. Prefer initializing with an empty string directly.</t>
+  </si>
+  <si>
+    <t>handleAddPartSave method throws IOException but only catches NumberFormatException, this leads to unhandled errors.</t>
+  </si>
+  <si>
+    <t>AddProductController 112</t>
+  </si>
+  <si>
+    <t>AddPartController</t>
+  </si>
+  <si>
+    <t>partId (int), inhouseRBtn (RadioButton) and partIdTxt(TextField) are never used.</t>
+  </si>
+  <si>
+    <t>AddProductController</t>
+  </si>
+  <si>
+    <t>productId (int) and productIdTxt (TextField) are never used.</t>
+  </si>
+  <si>
+    <t>AddProductController, 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddProductController, 165 </t>
+  </si>
+  <si>
+    <t>handleCancelProduct method throws an exception that is not caught anywhere. Prefer error handling and displaying a user-friendly message.</t>
+  </si>
+  <si>
+    <t>AddProductController, 199</t>
+  </si>
+  <si>
+    <t>handleSaveProduct method throws an exception that is not caught anywhere. Prefer error handling and displaying a user-friendly message.</t>
+  </si>
+  <si>
+    <t>handleSaveProduct method throws IOException but only catches NumberFormatException, this leads to unhandled errors.</t>
+  </si>
+  <si>
+    <t>MainScreenController, 84</t>
+  </si>
+  <si>
+    <t>Method `setService` in `MainScreenController` does not check for null service, which may cause runtime errors.</t>
+  </si>
+  <si>
+    <t>MainScreenController</t>
+  </si>
+  <si>
+    <t>ModifyPartController</t>
+  </si>
+  <si>
+    <t>ModifyPartController, 33</t>
+  </si>
+  <si>
+    <t>partId (int) is never used.</t>
+  </si>
+  <si>
+    <t>ModifyPartController, 69</t>
+  </si>
+  <si>
+    <t>Method `setService` in `ModifyPartController` does not check for null service, which may cause runtime errors.</t>
+  </si>
+  <si>
+    <t>Methods displayScene and handleModifyPartCancel throws throws unhandled exception IOException.</t>
+  </si>
+  <si>
+    <t>Methods handleAddPart, handleAddProduct, handleModifyPart and handleModifyProduct throws unhandled exception IOException.</t>
+  </si>
+  <si>
+    <t>handleModifyPartSave method throws IOException but only catches NumberFormatException, this leads to unhandled errors.</t>
+  </si>
+  <si>
+    <t>ModifyProductController, 91</t>
+  </si>
+  <si>
+    <t>Method `setService` in ModifyProductController does not check for null service, which may cause runtime errors.</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>ModifyProductController, 124</t>
+  </si>
+  <si>
+    <t>The initialize method is an overridden method from the Initializable interface, which means it is supposed to be executed when the controller is loaded. Having an empty implementation violates the expected behavior of the method.</t>
+  </si>
+  <si>
+    <t>Methods displayScene and handleCancelProduct throws throws unhandled exception IOException.</t>
+  </si>
+  <si>
+    <t>ModifyProductController</t>
+  </si>
+  <si>
+    <t>InHousePart</t>
+  </si>
+  <si>
+    <t>The machineId field is not validated and could be set by the user as a negative value.</t>
+  </si>
+  <si>
+    <t>OutsourcedPart</t>
+  </si>
+  <si>
+    <t>The companyName field is not validated and could be empty.</t>
+  </si>
+  <si>
+    <t>AddProductController, 152</t>
+  </si>
+  <si>
+    <t>Optional value should only be accessed after calling isPresent()</t>
+  </si>
+  <si>
+    <t>if(result.get() == ButtonType.OK)</t>
+  </si>
+  <si>
+    <t>if(result.isPresent() &amp;&amp; result.get() == ButtonType.OK)</t>
+  </si>
+  <si>
+    <t>Part, 5</t>
+  </si>
+  <si>
+    <t>Constructors of an "abstract" class should not be declared "public"</t>
+  </si>
+  <si>
+    <t>public Part</t>
+  </si>
+  <si>
+    <t>protected Part</t>
+  </si>
+  <si>
+    <t>InventoryRepository,  28</t>
+  </si>
+  <si>
+    <t>Resources should be closed</t>
+  </si>
+  <si>
+    <t>BufferedReader br = null;
+		try {
+			br = new BufferedReader(new FileReader(file)); ... }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> try(BufferedReader br = new BufferedReader(new FileReader(file))) {
+			... }</t>
+  </si>
+  <si>
+    <t>20.03.2025</t>
+  </si>
+  <si>
+    <t>Part, 86</t>
+  </si>
+  <si>
+    <t>Method isValidPart is using an empty String errorMessage as parameter. This should be declared locally.</t>
+  </si>
+  <si>
+    <t>AddProductController, 61</t>
+  </si>
+  <si>
+    <t>Add a nested comment explaining why this method is empty, throw an UnsupportedOperationException or complete the implementation.</t>
+  </si>
+  <si>
+    <t>public AddPartController(){}</t>
+  </si>
+  <si>
+    <t>//empty constructor      public AddPartController(){ }</t>
+  </si>
+  <si>
+    <t>Product, 10</t>
+  </si>
+  <si>
+    <t>This block of commented-out lines of code should be removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private ObservableList&lt;Part&gt; associatedParts;// = FXCollections.observableArrayList();
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private ObservableList&lt;Part&gt; associatedParts;
+</t>
+  </si>
+  <si>
+    <t>Effort to perform tool-based code analysis (hours): 0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,79 +535,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,17 +639,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,7 +684,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -529,7 +756,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -702,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -712,36 +939,36 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.21875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.90625" style="6"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -750,57 +977,57 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="36"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -814,7 +1041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -822,7 +1049,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -831,7 +1058,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -840,7 +1067,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -849,7 +1076,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -858,7 +1085,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -867,7 +1094,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -876,7 +1103,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -885,7 +1112,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -894,7 +1121,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -903,7 +1130,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -912,7 +1139,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -921,7 +1148,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -930,7 +1157,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -939,7 +1166,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -948,7 +1175,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -957,7 +1184,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
@@ -979,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -989,35 +1216,35 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="22.08984375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.21875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="22.109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1026,57 +1253,57 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="37"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="39"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1098,7 +1325,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1107,7 +1334,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1116,7 +1343,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1125,7 +1352,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1134,7 +1361,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1143,7 +1370,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1152,7 +1379,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1161,7 +1388,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1170,7 +1397,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1179,7 +1406,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1188,7 +1415,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1197,7 +1424,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1206,7 +1433,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1215,7 +1442,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1224,7 +1451,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1233,7 +1460,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1242,7 +1469,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
@@ -1264,46 +1491,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1312,57 +1539,73 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="40"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="42"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1376,200 +1619,373 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B30" si="0">B11+1</f>
+        <f t="shared" ref="B12:B33" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C32" s="11" t="s">
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1586,47 +2002,47 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="5" max="5" width="23.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1635,47 +2051,63 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="31"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1692,66 +2124,102 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1761,7 +2229,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1771,7 +2239,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1781,7 +2249,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1791,7 +2259,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1801,7 +2269,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1811,7 +2279,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1821,7 +2289,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1831,7 +2299,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1841,7 +2309,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1851,7 +2319,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1861,7 +2329,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1871,7 +2339,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1881,7 +2349,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1891,7 +2359,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1901,16 +2369,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F35" s="35"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Laptop\e\VVSS\CamiVVSS_ro2024-2025\Labs\Lab01\CheckListsAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FACULTATE\VVSS_Inventory\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C988F33-E974-4516-BC95-27D0B68ECC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D4E73-72FB-41A4-8AD5-67F3980913DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="141">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -134,20 +134,363 @@
     <t>Tool-based Code Analysis</t>
   </si>
   <si>
-    <t>Effort to perform tool-based code analysis (hours):</t>
+    <t>Panzaru Tudor-Calin</t>
+  </si>
+  <si>
+    <t>Pop Alexandru</t>
+  </si>
+  <si>
+    <t>Profir Alexandru</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>displayScene method throws an exception that is not caught anywhere. Prefer error handling and displaying a user-friendly message.</t>
+  </si>
+  <si>
+    <t>handleAddPartCancel method throws an exception that is not caught anywhere. Prefer error handling and displaying a user-friendly message.</t>
+  </si>
+  <si>
+    <t>AddPartController, 101</t>
+  </si>
+  <si>
+    <t>AddPartController, 83</t>
+  </si>
+  <si>
+    <t>AddPartController, 145</t>
+  </si>
+  <si>
+    <t>Method `setService` in `AddProductController` does not check for null service, which may cause runtime errors.</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>AddProductController, 88</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>AddPartController, 25</t>
+  </si>
+  <si>
+    <t>Using `new String()` to initialize errorMessage is redundant. Prefer initializing with an empty string directly.</t>
+  </si>
+  <si>
+    <t>handleAddPartSave method throws IOException but only catches NumberFormatException, this leads to unhandled errors.</t>
+  </si>
+  <si>
+    <t>AddProductController 112</t>
+  </si>
+  <si>
+    <t>AddPartController</t>
+  </si>
+  <si>
+    <t>partId (int), inhouseRBtn (RadioButton) and partIdTxt(TextField) are never used.</t>
+  </si>
+  <si>
+    <t>AddProductController</t>
+  </si>
+  <si>
+    <t>productId (int) and productIdTxt (TextField) are never used.</t>
+  </si>
+  <si>
+    <t>AddProductController, 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddProductController, 165 </t>
+  </si>
+  <si>
+    <t>handleCancelProduct method throws an exception that is not caught anywhere. Prefer error handling and displaying a user-friendly message.</t>
+  </si>
+  <si>
+    <t>AddProductController, 199</t>
+  </si>
+  <si>
+    <t>handleSaveProduct method throws an exception that is not caught anywhere. Prefer error handling and displaying a user-friendly message.</t>
+  </si>
+  <si>
+    <t>handleSaveProduct method throws IOException but only catches NumberFormatException, this leads to unhandled errors.</t>
+  </si>
+  <si>
+    <t>MainScreenController, 84</t>
+  </si>
+  <si>
+    <t>Method `setService` in `MainScreenController` does not check for null service, which may cause runtime errors.</t>
+  </si>
+  <si>
+    <t>MainScreenController</t>
+  </si>
+  <si>
+    <t>ModifyPartController</t>
+  </si>
+  <si>
+    <t>ModifyPartController, 33</t>
+  </si>
+  <si>
+    <t>partId (int) is never used.</t>
+  </si>
+  <si>
+    <t>ModifyPartController, 69</t>
+  </si>
+  <si>
+    <t>Method `setService` in `ModifyPartController` does not check for null service, which may cause runtime errors.</t>
+  </si>
+  <si>
+    <t>Methods displayScene and handleModifyPartCancel throws throws unhandled exception IOException.</t>
+  </si>
+  <si>
+    <t>Methods handleAddPart, handleAddProduct, handleModifyPart and handleModifyProduct throws unhandled exception IOException.</t>
+  </si>
+  <si>
+    <t>handleModifyPartSave method throws IOException but only catches NumberFormatException, this leads to unhandled errors.</t>
+  </si>
+  <si>
+    <t>ModifyProductController, 91</t>
+  </si>
+  <si>
+    <t>Method `setService` in ModifyProductController does not check for null service, which may cause runtime errors.</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>ModifyProductController, 124</t>
+  </si>
+  <si>
+    <t>The initialize method is an overridden method from the Initializable interface, which means it is supposed to be executed when the controller is loaded. Having an empty implementation violates the expected behavior of the method.</t>
+  </si>
+  <si>
+    <t>Methods displayScene and handleCancelProduct throws throws unhandled exception IOException.</t>
+  </si>
+  <si>
+    <t>ModifyProductController</t>
+  </si>
+  <si>
+    <t>InHousePart</t>
+  </si>
+  <si>
+    <t>The machineId field is not validated and could be set by the user as a negative value.</t>
+  </si>
+  <si>
+    <t>OutsourcedPart</t>
+  </si>
+  <si>
+    <t>The companyName field is not validated and could be empty.</t>
+  </si>
+  <si>
+    <t>AddProductController, 152</t>
+  </si>
+  <si>
+    <t>Optional value should only be accessed after calling isPresent()</t>
+  </si>
+  <si>
+    <t>if(result.get() == ButtonType.OK)</t>
+  </si>
+  <si>
+    <t>if(result.isPresent() &amp;&amp; result.get() == ButtonType.OK)</t>
+  </si>
+  <si>
+    <t>Part, 5</t>
+  </si>
+  <si>
+    <t>Constructors of an "abstract" class should not be declared "public"</t>
+  </si>
+  <si>
+    <t>public Part</t>
+  </si>
+  <si>
+    <t>protected Part</t>
+  </si>
+  <si>
+    <t>InventoryRepository,  28</t>
+  </si>
+  <si>
+    <t>Resources should be closed</t>
+  </si>
+  <si>
+    <t>BufferedReader br = null;
+		try {
+			br = new BufferedReader(new FileReader(file)); ... }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> try(BufferedReader br = new BufferedReader(new FileReader(file))) {
+			... }</t>
+  </si>
+  <si>
+    <t>20.03.2025</t>
+  </si>
+  <si>
+    <t>Part, 86</t>
+  </si>
+  <si>
+    <t>Method isValidPart is using an empty String errorMessage as parameter. This should be declared locally.</t>
+  </si>
+  <si>
+    <t>AddProductController, 61</t>
+  </si>
+  <si>
+    <t>Add a nested comment explaining why this method is empty, throw an UnsupportedOperationException or complete the implementation.</t>
+  </si>
+  <si>
+    <t>public AddPartController(){}</t>
+  </si>
+  <si>
+    <t>//empty constructor      public AddPartController(){ }</t>
+  </si>
+  <si>
+    <t>Product, 10</t>
+  </si>
+  <si>
+    <t>This block of commented-out lines of code should be removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private ObservableList&lt;Part&gt; associatedParts;// = FXCollections.observableArrayList();
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private ObservableList&lt;Part&gt; associatedParts;
+</t>
+  </si>
+  <si>
+    <t>Effort to perform tool-based code analysis (hours): 0.5</t>
+  </si>
+  <si>
+    <t>SonarQube IDE</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>F01a</t>
+  </si>
+  <si>
+    <t>No clear constraints on data input format</t>
+  </si>
+  <si>
+    <t>F01b</t>
+  </si>
+  <si>
+    <t>No mention of error handling or exceptions</t>
+  </si>
+  <si>
+    <t>No clear difference between company made parts and bought parts</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>No mention on how system state is initialized when data is read from the file</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>F03b/F04b</t>
+  </si>
+  <si>
+    <t>What happens if a part from a product is updated/deleted</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>User needs are not explicitly defined</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>The requirements do not mention any environmental factors that could impact the system. Ex: storage limitations, system performance</t>
+  </si>
+  <si>
+    <t>Pop Alexandru-Ionut</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>Class Inventory is redundant, the CRUD operations are in Inventory Repo</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No packages or layers are specified </t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>No method to change a part from InHouse and Outsorced</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No explicit error-handling strategy is defined in the architecture. It is unclear how errors in data retrieval or operations are managed. </t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>The validators from Part and Product should be separate classes. Also observer pattern is missing.</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>There is no clear difference between Inventory and InventoryRepository</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>There are no descriptions</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>No relation between controllers, service and repo</t>
+  </si>
+  <si>
+    <t>A10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,79 +669,123 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,99 +1095,115 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.90625" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="19" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H3" s="17" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="48">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="H4" s="17" t="s">
+      <c r="E4" s="32"/>
+      <c r="H4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="48">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="H5" s="17" t="s">
+      <c r="E5" s="34"/>
+      <c r="H5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="48">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="43">
+        <v>45736</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -814,69 +1217,107 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="47">
+        <v>1</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -885,7 +1326,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -894,7 +1335,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -903,7 +1344,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -912,7 +1353,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -921,7 +1362,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -930,7 +1371,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -939,7 +1380,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -948,7 +1389,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -957,7 +1398,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
@@ -966,12 +1407,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -985,278 +1426,317 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="22.08984375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="22.140625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="19" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H3" s="17" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="57">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="H4" s="17" t="s">
+      <c r="E4" s="35"/>
+      <c r="H4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="57">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="H5" s="17" t="s">
+      <c r="E5" s="37"/>
+      <c r="H5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="57">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
+      <c r="D7" s="43">
+        <v>45736</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="52">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3">
-        <f>B10+1</f>
+      <c r="C10" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="52">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
-        <f t="shared" ref="B12:B26" si="0">B11+1</f>
+      <c r="C11" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="52">
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
+      <c r="C12" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="52">
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
+      <c r="C13" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="52">
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
+      <c r="C14" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="52">
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
+      <c r="C15" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="52">
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
+      <c r="C16" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="52">
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
+      <c r="C17" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="52">
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
+      <c r="C18" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="52">
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
+      <c r="C19" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="52">
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="52">
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="52">
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="52">
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="52">
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="52">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="52">
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C28" s="11" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="49"/>
+      <c r="C28" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1268,42 +1748,42 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1312,57 +1792,73 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="38"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="40"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1376,200 +1872,373 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B30" si="0">B11+1</f>
+        <f t="shared" ref="B12:B33" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C32" s="11" t="s">
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1592,41 +2261,41 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="5" max="5" width="23.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1635,47 +2304,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="38"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="29"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="29"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1692,66 +2379,102 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1761,7 +2484,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1771,7 +2494,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1781,7 +2504,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1791,7 +2514,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1801,7 +2524,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1811,7 +2534,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1821,7 +2544,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1831,7 +2554,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1841,7 +2564,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1851,7 +2574,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1861,7 +2584,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1871,7 +2594,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1881,7 +2604,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1891,7 +2614,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1901,16 +2624,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F35" s="35"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
